--- a/noise_Depol_1_to_6_qubits_pes.xlsx
+++ b/noise_Depol_1_to_6_qubits_pes.xlsx
@@ -508,38 +508,38 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>96.37</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>96.54000000000001</v>
+        <v>99.83</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>96.48999999999999</v>
+        <v>99.70999999999999</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>96.66</v>
+        <v>99.56</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>96.81</v>
+        <v>99.31999999999999</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>96.88</v>
+        <v>99.16</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>96.59999999999999</v>
+        <v>99.01000000000001</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>96.47</v>
+        <v>98.72</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>96.95</v>
+        <v>98.69</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>96.69</v>
+        <v>98.56</v>
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>96.48</t>
+          <t>98.49</t>
         </is>
       </c>
     </row>
@@ -548,38 +548,38 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>48.95</v>
+        <v>48.79</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>49.65</v>
+        <v>49.57</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>50.39</v>
+        <v>50.01</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>49.43</v>
+        <v>49.61</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>50.2</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>50.47000000000001</v>
+        <v>50.24</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>49.48</v>
+        <v>50.62</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>49.79</v>
+        <v>50.34</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>50.02</v>
+        <v>49.93</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>49.39</v>
+        <v>49.72</v>
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>49.519999999999996</t>
+          <t>50.449999999999996</t>
         </is>
       </c>
     </row>
@@ -669,38 +669,38 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>2.075334647711943</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>2.071680132587529</v>
+        <v>2.003405789842732</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>2.072753653228314</v>
+        <v>2.005816868919867</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>2.069108214359611</v>
+        <v>2.008838891120932</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.065902282822023</v>
+        <v>2.013693113169553</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.064409578860446</v>
+        <v>2.016942315449778</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>2.070393374741201</v>
+        <v>2.01999798000202</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>2.073183373069348</v>
+        <v>2.025931928687196</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>2.062919030428056</v>
+        <v>2.026547775863816</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>2.068466232288758</v>
+        <v>2.029220779220779</v>
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>2.0729684908789388</t>
+          <t>2.030663011473246</t>
         </is>
       </c>
     </row>
@@ -709,38 +709,38 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>4.085801838610827</v>
+        <v>4.099200655872105</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>4.028197381671702</v>
+        <v>4.03469840629413</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>3.969041476483429</v>
+        <v>3.999200159968007</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>4.046125834513453</v>
+        <v>4.031445273130418</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>3.98406374501992</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3.96275014860313</v>
+        <v>3.980891719745223</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>4.042037186742118</v>
+        <v>3.951007506914263</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>4.016870857601928</v>
+        <v>3.972983710766786</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>3.998400639744102</v>
+        <v>4.005607850991388</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>4.049402713099818</v>
+        <v>4.022526146419952</v>
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>4.038772213247173</t>
+          <t>3.964321110009911</t>
         </is>
       </c>
     </row>
@@ -830,38 +830,38 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>64.11</v>
+        <v>94.92</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>65.72</v>
+        <v>92.77</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>64.31999999999999</v>
+        <v>91.01000000000001</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>63.85999999999999</v>
+        <v>89.95</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>64.08</v>
+        <v>86.97</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>65.98</v>
+        <v>86.42999999999999</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>65.75999999999999</v>
+        <v>83.91999999999999</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>64.20999999999999</v>
+        <v>83.05</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>66.23999999999999</v>
+        <v>81.33</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>64.29000000000001</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>65.56</t>
+          <t>77.22</t>
         </is>
       </c>
     </row>
@@ -870,38 +870,38 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>83.42</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>81.25</v>
+        <v>99.11</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>82.69999999999999</v>
+        <v>98.11</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>83.16</v>
+        <v>97.45</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>82.97</v>
+        <v>95.28</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>85.06</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>84.45</v>
+        <v>93.92</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>81.27</v>
+        <v>93.54000000000001</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>82.67999999999999</v>
+        <v>91.48</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>82.92</v>
+        <v>91.58</v>
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>78.47</t>
+          <t>90.89</t>
         </is>
       </c>
     </row>
@@ -910,38 +910,38 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>72.41</v>
+        <v>84.81999999999999</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>73.63</v>
+        <v>83.39999999999999</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>72.46000000000001</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>73.44000000000001</v>
+        <v>82.3</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>72.44</v>
+        <v>81.47999999999999</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>73.26000000000001</v>
+        <v>82.08</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>73.40000000000001</v>
+        <v>81.42</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>72.57000000000001</v>
+        <v>80.23999999999999</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>73.2</v>
+        <v>78.81</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>73.24000000000001</v>
+        <v>79.23999999999999</v>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>74.25</t>
+          <t>78.48</t>
         </is>
       </c>
     </row>
@@ -950,38 +950,38 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>49.67</v>
+        <v>49.76</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>49.27</v>
+        <v>50.19</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>49.49</v>
+        <v>50.51</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>50.1</v>
+        <v>49.86</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>50.1</v>
+        <v>49.26</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>50.63</v>
+        <v>50.18</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>49.72</v>
+        <v>49.01</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>49.17</v>
+        <v>48.96</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>49.81</v>
+        <v>49.54</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>49.64</v>
+        <v>49.85</v>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>50.83</t>
+          <t>49.95</t>
         </is>
       </c>
     </row>
@@ -1071,38 +1071,38 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>4.679457182966776</v>
+        <v>3.160556257901391</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>4.564820450395618</v>
+        <v>3.233804031475693</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>4.664179104477612</v>
+        <v>3.296341061421822</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>4.697776385844033</v>
+        <v>3.335186214563647</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>4.681647940074907</v>
+        <v>3.449465332873404</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>4.546832373446499</v>
+        <v>3.471017007983339</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>4.562043795620438</v>
+        <v>3.574833174451859</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>4.672169444011836</v>
+        <v>3.612281757977122</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>4.528985507246377</v>
+        <v>3.688675765400221</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>4.666355576294913</v>
+        <v>3.778337531486146</v>
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>4.575960951799878</t>
+          <t>3.885003885003885</t>
         </is>
       </c>
     </row>
@@ -1111,38 +1111,38 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>2.397506593143131</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>2.461538461538462</v>
+        <v>2.017959842599132</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>2.418379685610641</v>
+        <v>2.038528182652125</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>2.405002405002405</v>
+        <v>2.052334530528476</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2.410509822827528</v>
+        <v>2.099076406381192</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.351281448389372</v>
+        <v>2.09643605870021</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>2.36826524570752</v>
+        <v>2.12947189097104</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>2.460932693490833</v>
+        <v>2.138122728244601</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>2.418964683115626</v>
+        <v>2.186270222999563</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>2.41196333815726</v>
+        <v>2.183882943874208</v>
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>2.548744743213967</t>
+          <t>2.2004620970403783</t>
         </is>
       </c>
     </row>
@@ -1151,38 +1151,38 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>2.762049440684988</v>
+        <v>2.357934449422306</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>2.716284123319299</v>
+        <v>2.398081534772182</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>2.760143527463428</v>
+        <v>2.406738868832732</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>2.723311546840959</v>
+        <v>2.430133657351154</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>2.760905577029265</v>
+        <v>2.454590083456063</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.73000273000273</v>
+        <v>2.436647173489279</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>2.724795640326976</v>
+        <v>2.456398919184476</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>2.755959762987461</v>
+        <v>2.492522432701894</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>2.73224043715847</v>
+        <v>2.537749016622256</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>2.730748225013654</v>
+        <v>2.523977788995457</v>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>2.6936026936026938</t>
+          <t>2.5484199796126403</t>
         </is>
       </c>
     </row>
@@ -1191,38 +1191,38 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>4.02657539762432</v>
+        <v>4.019292604501608</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>4.05926527298559</v>
+        <v>3.984857541342897</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>4.04122044857547</v>
+        <v>3.959611958028113</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>3.992015968063872</v>
+        <v>4.011231448054553</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>3.992015968063872</v>
+        <v>4.060089321965084</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>3.950227138060439</v>
+        <v>3.985651654045436</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>4.022526146419952</v>
+        <v>4.080799836768007</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>4.067520846044336</v>
+        <v>4.084967320261438</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>4.015257980325236</v>
+        <v>4.037141703673799</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>4.029008863819501</v>
+        <v>4.012036108324975</v>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3.9346842415896126</t>
+          <t>4.004004004004004</t>
         </is>
       </c>
     </row>
@@ -1312,38 +1312,38 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>17.34</v>
+        <v>91.2</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>17.1</v>
+        <v>82.66</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>17.01</v>
+        <v>75.72</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>19.39</v>
+        <v>67.78999999999999</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>17.9</v>
+        <v>62.03</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>18.31</v>
+        <v>57.37</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>17.25</v>
+        <v>50.61</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>15.94</v>
+        <v>48.76</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>16.85</v>
+        <v>44.8</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>17.1</v>
+        <v>39.63</v>
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>17.549999999999997</t>
+          <t>35.58</t>
         </is>
       </c>
     </row>
@@ -1352,38 +1352,38 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>20.18</v>
+        <v>94.65000000000001</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>19.96</v>
+        <v>85.95</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>23.93</v>
+        <v>77.49000000000001</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>19.75</v>
+        <v>70.47</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>20.91</v>
+        <v>61.8</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>24.75</v>
+        <v>59.47</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>24.29</v>
+        <v>51.64</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>20.93</v>
+        <v>46.98</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>20.66</v>
+        <v>40.38</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>21.86</v>
+        <v>42.22</v>
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>21.36</t>
+          <t>39.129999999999995</t>
         </is>
       </c>
     </row>
@@ -1392,38 +1392,38 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>36.19</v>
+        <v>95.17</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>39.6</v>
+        <v>90</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>39.64</v>
+        <v>84.96000000000001</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>38.08000000000001</v>
+        <v>80.17</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>39.33</v>
+        <v>76.94</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>36.64</v>
+        <v>73.92999999999999</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>38.66</v>
+        <v>70.67999999999999</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>42.37</v>
+        <v>66.41</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>39.29000000000001</v>
+        <v>62.5</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>41.61</v>
+        <v>60</v>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>37.55</t>
+          <t>57.269999999999996</t>
         </is>
       </c>
     </row>
@@ -1432,38 +1432,38 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>42.56</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>45.31</v>
+        <v>95.09</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>42.16</v>
+        <v>89.92</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>46.68</v>
+        <v>85.41</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45.72</v>
+        <v>80.12</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>43.93</v>
+        <v>77.39</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>43.25</v>
+        <v>74.16</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>42.32</v>
+        <v>69.81</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>42.47</v>
+        <v>67.32000000000001</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>44.33000000000001</v>
+        <v>65.36999999999999</v>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>44.66</t>
+          <t>62.93</t>
         </is>
       </c>
     </row>
@@ -1472,38 +1472,38 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45.59</v>
+        <v>95.69</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>49.03</v>
+        <v>91.18000000000001</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45.87</v>
+        <v>87.02</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>47.23</v>
+        <v>83.02000000000001</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>47.55</v>
+        <v>79.54000000000001</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>47.4</v>
+        <v>75.86</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>46.5</v>
+        <v>73.39</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>47.66</v>
+        <v>71.5</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>48.25</v>
+        <v>66.67999999999999</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45.52</v>
+        <v>65.47</v>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>46.489999999999995</t>
+          <t>61.29</t>
         </is>
       </c>
     </row>
@@ -1512,38 +1512,38 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>49.22000000000001</v>
+        <v>84.87</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>49.47</v>
+        <v>80.95999999999999</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>49.88</v>
+        <v>78.14</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>50.39</v>
+        <v>75.2</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>48.6</v>
+        <v>73.36</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>48.39</v>
+        <v>69.69</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>49.36</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>49.4</v>
+        <v>65.84999999999999</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>48.19</v>
+        <v>63.24999999999999</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>49</v>
+        <v>61.74</v>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>48.03</t>
+          <t>60.38</t>
         </is>
       </c>
     </row>
@@ -1552,38 +1552,38 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>47.93</v>
+        <v>68.52000000000001</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>49.36</v>
+        <v>66.32000000000001</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>49.55</v>
+        <v>64.48</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>49.04</v>
+        <v>62.58000000000001</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>49.9</v>
+        <v>62.76000000000001</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>50.32</v>
+        <v>61.18</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>50.23</v>
+        <v>59.4</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>49.46</v>
+        <v>58.15</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>49.51</v>
+        <v>58.13</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>48.73</v>
+        <v>56.45</v>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>49.980000000000004</t>
+          <t>55.71</t>
         </is>
       </c>
     </row>
@@ -1592,38 +1592,38 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>48.89</v>
+        <v>49.72</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>50.19</v>
+        <v>49.38</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>49.14</v>
+        <v>49.78</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>49.04</v>
+        <v>49.11</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>50.39</v>
+        <v>50.62</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>50.08000000000001</v>
+        <v>49.98</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>49.7</v>
+        <v>50.74</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>49.72</v>
+        <v>50.13</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>50.62</v>
+        <v>50.02</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>49.41</v>
+        <v>49.78</v>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>50.01</t>
+          <t>50.5</t>
         </is>
       </c>
     </row>
@@ -1713,38 +1713,38 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>17.30103806228374</v>
+        <v>3.289473684210527</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>17.54385964912281</v>
+        <v>3.629324945560126</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>17.63668430335097</v>
+        <v>3.961965134706815</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>15.47189272821042</v>
+        <v>4.425431479569259</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>16.75977653631285</v>
+        <v>4.836369498629695</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>16.38448935008192</v>
+        <v>5.229213874847481</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>17.39130434782609</v>
+        <v>5.927682276229994</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>18.82057716436638</v>
+        <v>6.152584085315833</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>17.80415430267062</v>
+        <v>6.696428571428571</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>17.54385964912281</v>
+        <v>7.57002271006813</v>
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>17.094017094017094</t>
+          <t>8.431703204047217</t>
         </is>
       </c>
     </row>
@@ -1753,38 +1753,38 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>14.86620416253717</v>
+        <v>3.169572107765452</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>15.03006012024048</v>
+        <v>3.490401396160558</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>12.53656498119515</v>
+        <v>3.871467286101432</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>15.18987341772152</v>
+        <v>4.257130693912304</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>14.34720229555237</v>
+        <v>4.854368932038836</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>12.12121212121212</v>
+        <v>5.044560282495376</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>12.35076163030054</v>
+        <v>5.809450038729667</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>14.33349259436216</v>
+        <v>6.385696040868455</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>14.52081316553727</v>
+        <v>7.429420505200595</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>13.72369624885636</v>
+        <v>7.105637138796778</v>
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>14.04494382022472</t>
+          <t>7.666751852798364</t>
         </is>
       </c>
     </row>
@@ -1793,38 +1793,38 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>5.526388505111909</v>
+        <v>2.101502574340654</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>5.05050505050505</v>
+        <v>2.222222222222222</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>5.045408678102926</v>
+        <v>2.354048964218456</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>5.252100840336134</v>
+        <v>2.494698765124112</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>5.085176709890669</v>
+        <v>2.599428125812321</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>5.458515283842795</v>
+        <v>2.705261734072772</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>5.173305742369374</v>
+        <v>2.829654782116582</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>4.720320981826764</v>
+        <v>3.011594639361542</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>5.090353779587681</v>
+        <v>3.2</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>4.806536890170632</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>5.326231691078562</t>
+          <t>3.4922297887200977</t>
         </is>
       </c>
     </row>
@@ -1833,38 +1833,38 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>4.699248120300752</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>4.414036636504083</v>
+        <v>2.103270585760858</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>4.743833017077799</v>
+        <v>2.224199288256228</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>4.284490145672665</v>
+        <v>2.341646177262616</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>4.374453193350831</v>
+        <v>2.496255616575137</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>4.552697473252902</v>
+        <v>2.584313218762114</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>4.624277456647399</v>
+        <v>2.696871628910464</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>4.725897920604915</v>
+        <v>2.864919066036384</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>4.709206498704968</v>
+        <v>2.9708853238265</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>4.511617414843221</v>
+        <v>3.059507419305492</v>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4.478280340349306</t>
+          <t>3.178134435086604</t>
         </is>
       </c>
     </row>
@@ -1873,38 +1873,38 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>4.386926957666155</v>
+        <v>2.090082558261051</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>4.079135223332654</v>
+        <v>2.193463478833078</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>4.360148245040332</v>
+        <v>2.298322224775914</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>4.234596654668643</v>
+        <v>2.409058058299205</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>4.206098843322818</v>
+        <v>2.514458134272064</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>4.219409282700422</v>
+        <v>2.636435539151068</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>4.301075268817204</v>
+        <v>2.725166916473634</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>4.196391103650861</v>
+        <v>2.797202797202797</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>4.145077720207254</v>
+        <v>2.999400119976005</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>4.393673110720562</v>
+        <v>3.054834275240568</v>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>4.302000430200043</t>
+          <t>3.2631750693424704</t>
         </is>
       </c>
     </row>
@@ -1913,38 +1913,38 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>4.063388866314506</v>
+        <v>2.356545304583481</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>4.042854255104103</v>
+        <v>2.470355731225296</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>4.00962309542903</v>
+        <v>2.559508574353724</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>3.969041476483429</v>
+        <v>2.659574468085106</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>4.11522633744856</v>
+        <v>2.726281352235551</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>4.133085348212441</v>
+        <v>2.869852202611566</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>4.051863857374392</v>
+        <v>2.967359050445104</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>4.048582995951417</v>
+        <v>3.037205770690965</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>4.150238638721727</v>
+        <v>3.162055335968379</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>4.081632653061225</v>
+        <v>3.239390994493035</v>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4.164064126587549</t>
+          <t>3.3123550844650547</t>
         </is>
       </c>
     </row>
@@ -1953,38 +1953,38 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>4.172751929897768</v>
+        <v>2.918855808523059</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>4.051863857374392</v>
+        <v>3.015681544028951</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>4.036326942482341</v>
+        <v>3.101736972704715</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>4.078303425774878</v>
+        <v>3.195909236177692</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>4.008016032064128</v>
+        <v>3.186743148502231</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>3.97456279809221</v>
+        <v>3.269042170644001</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>3.981684252438781</v>
+        <v>3.367003367003367</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>4.043671653861707</v>
+        <v>3.439380911435942</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>4.039587962027873</v>
+        <v>3.440564252537416</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>4.104247896572953</v>
+        <v>3.54295837023915</v>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>4.001600640256102</t>
+          <t>3.5900197451085982</t>
         </is>
       </c>
     </row>
@@ -1993,38 +1993,38 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>4.090816117815504</v>
+        <v>4.022526146419952</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>3.984857541342897</v>
+        <v>4.050222762251924</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>4.07000407000407</v>
+        <v>4.017677782241864</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>4.078303425774878</v>
+        <v>4.072490327835472</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>3.969041476483429</v>
+        <v>3.951007506914263</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>3.993610223642173</v>
+        <v>4.001600640256102</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>4.024144869215292</v>
+        <v>3.941663381947182</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>4.022526146419952</v>
+        <v>3.989626969878316</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>3.951007506914263</v>
+        <v>3.998400639744102</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>4.04776361060514</v>
+        <v>4.017677782241864</v>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3.9992001599680065</t>
+          <t>3.9603960396039604</t>
         </is>
       </c>
     </row>
@@ -2114,38 +2114,38 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>2.86</v>
+        <v>89.45</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>3.21</v>
+        <v>48.55</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>3.04</v>
+        <v>27.48</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>3.4</v>
+        <v>17.99</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>3.29</v>
+        <v>9.68</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3.23</v>
+        <v>6.87</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>3.35</v>
+        <v>6.13</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>3.27</v>
+        <v>4.32</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>3.26</v>
+        <v>4.109999999999999</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>2.93</v>
+        <v>3.85</v>
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>3.66</t>
         </is>
       </c>
     </row>
@@ -2154,38 +2154,38 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>6.4</v>
+        <v>91.15000000000001</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>6.25</v>
+        <v>56.55</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>6.34</v>
+        <v>37.38</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>5.93</v>
+        <v>22.17</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>6.09</v>
+        <v>16.41</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>6.329999999999999</v>
+        <v>13.69</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>6.39</v>
+        <v>11.9</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>6.19</v>
+        <v>10.45</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>5.81</v>
+        <v>7.81</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>6.43</v>
+        <v>7.670000000000001</v>
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>6.43</t>
+          <t>7.24</t>
         </is>
       </c>
     </row>
@@ -2194,38 +2194,38 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>9.82</v>
+        <v>99.98</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>9.5</v>
+        <v>62.02</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>9.32</v>
+        <v>37.14</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>9.57</v>
+        <v>27.59</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>9.539999999999999</v>
+        <v>20.32</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>9.06</v>
+        <v>15.66</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>8.91</v>
+        <v>13.96</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>9.720000000000001</v>
+        <v>11.38</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>9.720000000000001</v>
+        <v>11.48</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>9.720000000000001</v>
+        <v>10.27</v>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>9.69</t>
+          <t>10.66</t>
         </is>
       </c>
     </row>
@@ -2234,38 +2234,38 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>12.33</v>
+        <v>94.54000000000001</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>12.34</v>
+        <v>59.95</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>12.96</v>
+        <v>38.36</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>12.5</v>
+        <v>28.35</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>12.56</v>
+        <v>21.16</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>12.9</v>
+        <v>18.74</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>12.57</v>
+        <v>15.19</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>12.31</v>
+        <v>14.31</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>12.64</v>
+        <v>13.87</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>12.33</v>
+        <v>12.86</v>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>12.45</t>
+          <t>13.13</t>
         </is>
       </c>
     </row>
@@ -2274,38 +2274,38 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>15.27</v>
+        <v>87.91</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>16.2</v>
+        <v>68</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>15.59</v>
+        <v>53.67</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>16.55</v>
+        <v>43.3</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>15.5</v>
+        <v>36.54</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>15.93</v>
+        <v>30.28</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>15.09</v>
+        <v>25.09</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>16.23</v>
+        <v>22.09</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>15.96</v>
+        <v>21.25</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>15.34</v>
+        <v>20.18</v>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>15.7</t>
+          <t>19.009999999999998</t>
         </is>
       </c>
     </row>
@@ -2314,38 +2314,38 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>19.23</v>
+        <v>94.87</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>18.81</v>
+        <v>72.69</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>18.75</v>
+        <v>57.26</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>18.87</v>
+        <v>46.96</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>19.04</v>
+        <v>40.41</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>19.14</v>
+        <v>36.41</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>18.98</v>
+        <v>30.17</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>18.72</v>
+        <v>26.42</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>18.66</v>
+        <v>24.89</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>19.21</v>
+        <v>23.36</v>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>18.759999999999998</t>
+          <t>21.38</t>
         </is>
       </c>
     </row>
@@ -2354,38 +2354,38 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>21.73</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>21.93</v>
+        <v>76.64</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>21.34</v>
+        <v>60.9</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>22.27</v>
+        <v>49.32</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>21.1</v>
+        <v>40.67</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>21.79</v>
+        <v>36.53</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>22.61</v>
+        <v>30.93</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>21.46</v>
+        <v>28.85</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>21.42</v>
+        <v>27.62</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>22.23</v>
+        <v>26.44</v>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>24.740000000000002</t>
         </is>
       </c>
     </row>
@@ -2394,38 +2394,38 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>25.74</v>
+        <v>100</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>24.23</v>
+        <v>79.03</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>25.02</v>
+        <v>63.22</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>25.83</v>
+        <v>52.69</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>25.14</v>
+        <v>43.56</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>24.95</v>
+        <v>39.3</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>25.28</v>
+        <v>35.36</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>25.36</v>
+        <v>32.59</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>25.28</v>
+        <v>30.03</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>25.64</v>
+        <v>29.25</v>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>25.25</t>
+          <t>27.779999999999998</t>
         </is>
       </c>
     </row>
@@ -2434,38 +2434,38 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>28.43</v>
+        <v>98.75</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>28.15</v>
+        <v>78.36</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>29.11</v>
+        <v>64.52</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>29.06</v>
+        <v>54.28</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>27.67</v>
+        <v>47.27</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>27.88</v>
+        <v>40.95</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>28.06</v>
+        <v>38.46</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>28.99</v>
+        <v>34.37</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>28.34</v>
+        <v>33.61</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>28.67</v>
+        <v>32.02</v>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>28.310000000000002</t>
+          <t>31.66</t>
         </is>
       </c>
     </row>
@@ -2474,38 +2474,38 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>31.45</v>
+        <v>95.8</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>31.45</v>
+        <v>77.10000000000001</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>32.02</v>
+        <v>63.94</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>31.59</v>
+        <v>54.84</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>31.53</v>
+        <v>47.84</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>31.36</v>
+        <v>42.71</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>31.19</v>
+        <v>39.48</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>31.68</v>
+        <v>37.2</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>31.65</v>
+        <v>35.9</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>31.39</v>
+        <v>34.93</v>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>30.91</t>
+          <t>33.48</t>
         </is>
       </c>
     </row>
@@ -2514,38 +2514,38 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>34.84999999999999</v>
+        <v>91.15000000000001</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>34.33</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>35.07</v>
+        <v>62.55</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>34.77</v>
+        <v>54.51000000000001</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>34.23999999999999</v>
+        <v>49.2</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>35.08</v>
+        <v>45.38</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>35.42</v>
+        <v>41.62</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>34.7</v>
+        <v>39.77</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>34.59</v>
+        <v>37.95</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>33.83</v>
+        <v>37.82</v>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>35.11</t>
+          <t>37.13</t>
         </is>
       </c>
     </row>
@@ -2554,38 +2554,38 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>36.8</v>
+        <v>83.96000000000001</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>37.64</v>
+        <v>70.82000000000001</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>36.54</v>
+        <v>61.58</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>37.19</v>
+        <v>54.52</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>37.96</v>
+        <v>48.78</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>38.44</v>
+        <v>45.66</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>37.88</v>
+        <v>42.49</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>38.36</v>
+        <v>41.68</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>36.98</v>
+        <v>40.75</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>38.14</v>
+        <v>40.19</v>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>38.34</t>
+          <t>39.2</t>
         </is>
       </c>
     </row>
@@ -2594,38 +2594,38 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>40.54</v>
+        <v>76.87</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>40.68</v>
+        <v>66.23</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>41.47</v>
+        <v>59.23</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>40.49</v>
+        <v>53.86</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>40.51000000000001</v>
+        <v>49.76</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>39.78</v>
+        <v>47.93</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>41.13</v>
+        <v>45.6</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>41.21</v>
+        <v>44.54</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>40.62</v>
+        <v>43.38</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>40.91</v>
+        <v>42.02</v>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>41.71</t>
+          <t>42.15</t>
         </is>
       </c>
     </row>
@@ -2634,38 +2634,38 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>44.16</v>
+        <v>68.84</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>43.53</v>
+        <v>61.55</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44.42</v>
+        <v>56.57</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>43.96</v>
+        <v>52.86</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>44.03</v>
+        <v>50.01</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>43.38</v>
+        <v>48.43</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>43.98</v>
+        <v>47.63</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>43.52</v>
+        <v>45.57</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>44.6</v>
+        <v>45.21</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>42.93</v>
+        <v>45.31</v>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>43.72</t>
+          <t>45.97</t>
         </is>
       </c>
     </row>
@@ -2674,38 +2674,38 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>46.99</v>
+        <v>59.31</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>47.4</v>
+        <v>54.95</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45.99</v>
+        <v>53.45</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>46.51</v>
+        <v>51.24999999999999</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>46.85</v>
+        <v>50.8</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>47.07</v>
+        <v>49.37</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>46.85</v>
+        <v>48.21</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>46.63</v>
+        <v>47.97</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>46.05</v>
+        <v>47.98</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>46.61</v>
+        <v>47.88</v>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>46.93</t>
+          <t>47.81</t>
         </is>
       </c>
     </row>
@@ -2714,38 +2714,38 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>49.16</v>
+        <v>48.62</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>49.23</v>
+        <v>50.08000000000001</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>49.85</v>
+        <v>49.86</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>49.87</v>
+        <v>50.72</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>49.68</v>
+        <v>50.9</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>50.3</v>
+        <v>50.56</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>48.94</v>
+        <v>51.13999999999999</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>49.7</v>
+        <v>50.23</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>50.01</v>
+        <v>51.13</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>49.98</v>
+        <v>50.1</v>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>49.64</t>
+          <t>50.129999999999995</t>
         </is>
       </c>
     </row>
@@ -2835,38 +2835,38 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>139.8601398601399</v>
+        <v>4.471771939631079</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>124.6105919003115</v>
+        <v>8.238928939237899</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>131.578947368421</v>
+        <v>14.55604075691412</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>117.6470588235294</v>
+        <v>22.23457476375764</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>121.580547112462</v>
+        <v>41.32231404958678</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>123.8390092879257</v>
+        <v>58.22416302765648</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>119.4029850746269</v>
+        <v>65.25285481239804</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>122.3241590214067</v>
+        <v>92.5925925925926</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>122.6993865030675</v>
+        <v>97.323600973236</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>136.518771331058</v>
+        <v>103.8961038961039</v>
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>132.4503311258278</t>
+          <t>109.2896174863388</t>
         </is>
       </c>
     </row>
@@ -2875,38 +2875,38 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>46.875</v>
+        <v>3.291278113000549</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>48</v>
+        <v>5.305039787798409</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>47.3186119873817</v>
+        <v>8.025682182985554</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>50.5902192242833</v>
+        <v>13.531799729364</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>49.26108374384236</v>
+        <v>18.28153564899452</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>47.39336492890995</v>
+        <v>21.91380569758948</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>46.94835680751174</v>
+        <v>25.21008403361345</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>48.46526655896607</v>
+        <v>28.70813397129186</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>51.63511187607573</v>
+        <v>38.41229193341869</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>46.65629860031104</v>
+        <v>39.11342894393742</v>
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>46.65629860031104</t>
+          <t>41.43646408839779</t>
         </is>
       </c>
     </row>
@@ -2915,38 +2915,38 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>30.54989816700611</v>
+        <v>3.000600120024004</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>31.57894736842105</v>
+        <v>4.837149306675267</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>32.18884120171673</v>
+        <v>8.077544426494345</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>31.34796238244514</v>
+        <v>10.8735048930772</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>31.44654088050315</v>
+        <v>14.76377952755906</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>33.11258278145695</v>
+        <v>19.15708812260537</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>33.67003367003367</v>
+        <v>21.48997134670487</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>30.8641975308642</v>
+        <v>26.36203866432337</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>30.8641975308642</v>
+        <v>26.13240418118467</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>30.8641975308642</v>
+        <v>29.21129503407985</v>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>30.959752321981426</t>
+          <t>28.142589118198874</t>
         </is>
       </c>
     </row>
@@ -2955,38 +2955,38 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>24.330900243309</v>
+        <v>3.173259995768986</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>24.31118314424635</v>
+        <v>5.004170141784821</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>23.14814814814815</v>
+        <v>7.820646506777893</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>24</v>
+        <v>10.58201058201058</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>23.88535031847133</v>
+        <v>14.17769376181474</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>23.25581395348837</v>
+        <v>16.008537886873</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>23.86634844868735</v>
+        <v>19.74983541803818</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>24.37043054427295</v>
+        <v>20.9643605870021</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>23.73417721518988</v>
+        <v>21.62941600576784</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>24.330900243309</v>
+        <v>23.32814930015552</v>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>24.096385542168676</t>
+          <t>22.84843869002285</t>
         </is>
       </c>
     </row>
@@ -2995,38 +2995,38 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>13.09757694826457</v>
+        <v>2.275054032533273</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>12.34567901234568</v>
+        <v>2.941176470588236</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>12.82873636946761</v>
+        <v>3.726476616359232</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>12.08459214501511</v>
+        <v>4.618937644341801</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>12.90322580645161</v>
+        <v>5.473453749315818</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>12.5549278091651</v>
+        <v>6.605019815059445</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>13.25381047051027</v>
+        <v>7.971303308090873</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>12.32285890326556</v>
+        <v>9.053870529651428</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>12.53132832080201</v>
+        <v>9.411764705882351</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>13.03780964797914</v>
+        <v>9.910802775024775</v>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>12.738853503184714</t>
+          <t>10.520778537611783</t>
         </is>
       </c>
     </row>
@@ -3035,38 +3035,38 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>10.40041601664067</v>
+        <v>2.108147991989038</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>10.63264221158958</v>
+        <v>2.751410097675059</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>10.66666666666667</v>
+        <v>3.49283967865875</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>10.59883412824589</v>
+        <v>4.258943781942079</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>10.50420168067227</v>
+        <v>4.949269982677556</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>10.44932079414838</v>
+        <v>5.492996429552321</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>10.53740779768177</v>
+        <v>6.629101756711965</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>10.68376068376068</v>
+        <v>7.57002271006813</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>10.71811361200429</v>
+        <v>8.035355564483728</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>10.41124414367517</v>
+        <v>8.561643835616438</v>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>10.660980810234541</t>
+          <t>9.354536950420954</t>
         </is>
       </c>
     </row>
@@ -3075,38 +3075,38 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>9.203865623561896</v>
+        <v>2.021018593371059</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>9.119927040583676</v>
+        <v>2.609603340292276</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>9.372071227741332</v>
+        <v>3.284072249589491</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>8.980691513246519</v>
+        <v>4.0551500405515</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>9.478672985781991</v>
+        <v>4.917629702483403</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>9.178522257916477</v>
+        <v>5.474952094169176</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>8.845643520566121</v>
+        <v>6.466214031684449</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>9.319664492078283</v>
+        <v>6.932409012131716</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>9.337068160597571</v>
+        <v>7.24112961622013</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>8.99685110211426</v>
+        <v>7.564296520423601</v>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>9.090909090909092</t>
+          <t>8.084074373484237</t>
         </is>
       </c>
     </row>
@@ -3115,38 +3115,38 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>7.77000777000777</v>
+        <v>2</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>8.254230293025175</v>
+        <v>2.530684550170821</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>7.993605115907274</v>
+        <v>3.163555836760519</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>7.742934572202865</v>
+        <v>3.795786676788765</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>7.955449482895784</v>
+        <v>4.591368227731864</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>8.016032064128256</v>
+        <v>5.089058524173028</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>7.911392405063292</v>
+        <v>5.656108597285068</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>7.886435331230284</v>
+        <v>6.13685179502915</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>7.911392405063292</v>
+        <v>6.66000666000666</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>7.800312012480499</v>
+        <v>6.837606837606837</v>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7.920792079207921</t>
+          <t>7.199424046076314</t>
         </is>
       </c>
     </row>
@@ -3155,38 +3155,38 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>7.034822370735139</v>
+        <v>2.025316455696203</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>7.104795737122558</v>
+        <v>2.552322613578356</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>6.870491240123669</v>
+        <v>3.09981401115933</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>6.882312456985547</v>
+        <v>3.684598378776714</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>7.228044813877846</v>
+        <v>4.231013327691982</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>7.173601147776184</v>
+        <v>4.884004884004884</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>7.127583749109052</v>
+        <v>5.200208008320333</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>6.89893066574681</v>
+        <v>5.819028222286878</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>7.057163020465773</v>
+        <v>5.950609937518595</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>6.975933031042902</v>
+        <v>6.246096189881325</v>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>7.064641469445426</t>
+          <t>6.317119393556538</t>
         </is>
       </c>
     </row>
@@ -3195,38 +3195,38 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>6.359300476947536</v>
+        <v>2.087682672233821</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>6.359300476947536</v>
+        <v>2.594033722438392</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>6.246096189881325</v>
+        <v>3.127932436659368</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>6.331117442228553</v>
+        <v>3.646973012399709</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>6.343165239454488</v>
+        <v>4.180602006688964</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>6.377551020408164</v>
+        <v>4.682744088035589</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>6.412311638345623</v>
+        <v>5.065856129685917</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>6.313131313131313</v>
+        <v>5.376344086021505</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>6.31911532385466</v>
+        <v>5.571030640668524</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>6.371455877668047</v>
+        <v>5.72573718866304</v>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6.470397929472663</t>
+          <t>5.973715651135006</t>
         </is>
       </c>
     </row>
@@ -3235,38 +3235,38 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>5.738880918220947</v>
+        <v>2.194185408667032</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>5.825808330905913</v>
+        <v>2.680965147453083</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>5.70287995437696</v>
+        <v>3.19744204636291</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>5.752085130859936</v>
+        <v>3.66905155017428</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>5.841121495327103</v>
+        <v>4.065040650406504</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>5.701254275940707</v>
+        <v>4.407227853680035</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>5.64652738565782</v>
+        <v>4.805382027871215</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>5.763688760806916</v>
+        <v>5.028916268544129</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>5.782017924255565</v>
+        <v>5.270092226613966</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>5.911912503694945</v>
+        <v>5.288207297726071</v>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>5.696382796923953</t>
+          <t>5.386479935362241</t>
         </is>
       </c>
     </row>
@@ -3275,38 +3275,38 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>5.434782608695652</v>
+        <v>2.382086707956169</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>5.313496280552604</v>
+        <v>2.824060999717594</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>5.473453749315818</v>
+        <v>3.247807729782397</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>5.377789728421619</v>
+        <v>3.668378576669112</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>5.268703898840885</v>
+        <v>4.100041000410005</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>5.202913631633715</v>
+        <v>4.380201489268506</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>5.279831045406547</v>
+        <v>4.706989879971758</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>5.213764337851929</v>
+        <v>4.798464491362764</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>5.408328826392645</v>
+        <v>4.9079754601227</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>5.243838489774515</v>
+        <v>4.976362279173924</v>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5.216484089723527</t>
+          <t>5.1020408163265305</t>
         </is>
       </c>
     </row>
@@ -3315,38 +3315,38 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>4.93339911198816</v>
+        <v>2.601795238714713</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>4.916420845624385</v>
+        <v>3.019779556092405</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>4.822763443453098</v>
+        <v>3.376667229444538</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>4.939491232403062</v>
+        <v>3.713330857779428</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>4.937052579609973</v>
+        <v>4.019292604501608</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>5.027652086475616</v>
+        <v>4.172751929897768</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>4.862630683199611</v>
+        <v>4.385964912280702</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>4.85319097306479</v>
+        <v>4.49034575662326</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>4.923682914820286</v>
+        <v>4.610419548178884</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>4.888780249327793</v>
+        <v>4.75963826749167</v>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>4.795013186286262</t>
+          <t>4.744958481613286</t>
         </is>
       </c>
     </row>
@@ -3355,38 +3355,38 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>4.528985507246377</v>
+        <v>2.905287623474724</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>4.594532506317482</v>
+        <v>3.249390739236393</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>4.5024763619991</v>
+        <v>3.53544281421248</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>4.549590536851683</v>
+        <v>3.783579265985622</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>4.542357483533954</v>
+        <v>3.999200159968007</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>4.610419548178884</v>
+        <v>4.129671691100557</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>4.547521600727603</v>
+        <v>4.19903422212891</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>4.595588235294118</v>
+        <v>4.388852315119596</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>4.484304932735426</v>
+        <v>4.423800044238001</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>4.658746797111577</v>
+        <v>4.414036636504083</v>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>4.574565416285453</t>
+          <t>4.3506634761801175</t>
         </is>
       </c>
     </row>
@@ -3395,38 +3395,38 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>4.256224728665673</v>
+        <v>3.372112628561794</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>4.219409282700422</v>
+        <v>3.639672429481347</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>4.348771472059143</v>
+        <v>3.741814780168382</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>4.300150505267684</v>
+        <v>3.902439024390244</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>4.268943436499466</v>
+        <v>3.937007874015748</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>4.248990864669641</v>
+        <v>4.05104314360948</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>4.268943436499466</v>
+        <v>4.148516905206389</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>4.289084280506112</v>
+        <v>4.169272461955389</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>4.343105320304018</v>
+        <v>4.168403501458942</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>4.290924694271616</v>
+        <v>4.177109440267335</v>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>4.261666311527807</t>
+          <t>4.183225266680611</t>
         </is>
       </c>
     </row>
@@ -3435,38 +3435,38 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>4.068348250610252</v>
+        <v>4.113533525298231</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>4.062563477554336</v>
+        <v>3.993610223642173</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>4.012036108324975</v>
+        <v>4.011231448054553</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>4.010427110487267</v>
+        <v>3.943217665615142</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>4.025764895330113</v>
+        <v>3.929273084479371</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>3.976143141153082</v>
+        <v>3.955696202531646</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>4.086636697997548</v>
+        <v>3.910833007430583</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>4.024144869215292</v>
+        <v>3.981684252438781</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>3.999200159968007</v>
+        <v>3.911597887737141</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>4.001600640256102</v>
+        <v>3.992015968063872</v>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>4.0290088638195005</t>
+          <t>3.989626969878316</t>
         </is>
       </c>
     </row>
